--- a/01-Excel/2/Activities/09-Ins_PivotTables/Solved/PivotTables_Solved.xlsx
+++ b/01-Excel/2/Activities/09-Ins_PivotTables/Solved/PivotTables_Solved.xlsx
@@ -1,33 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacob\OneDrive\Documents\WorkAndSchool\TeachingAssistant\DataViz\DataViz-Lesson-Plans\01-Lesson-Plans\01-Excel\2\Activities\09-Ins_PivotTables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Greg\Desktop\GA Tech\GitHub\GT-ATL-DATA-PT-09-2020-U-C-2\01-Excel\2\Activities\09-Ins_PivotTables\Solved\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="EB38C96A757F5A8F8FDBBC133FE1386DB659D6FE" xr6:coauthVersionLast="21" xr6:coauthVersionMax="21" xr10:uidLastSave="{B87C83CC-A6C0-4333-8D1D-521D4EE6FF64}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="458" windowWidth="20183" windowHeight="12818" tabRatio="796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="20190" windowHeight="12825" tabRatio="796" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="6" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="7" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="8" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$214</definedName>
   </definedNames>
   <calcPr calcId="145621" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId4"/>
+    <pivotCache cacheId="1" r:id="rId5"/>
   </pivotCaches>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -36,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="29">
   <si>
     <t>Country</t>
   </si>
@@ -128,7 +125,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
@@ -211,7 +208,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{FE0D9BC4-DAB8-496C-B826-44D3B596CAFA}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -228,7 +225,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Jacob's Gaming Rig" refreshedDate="42873.827209490744" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="213" xr:uid="{00000000-000A-0000-FFFF-FFFF09000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Jacob's Gaming Rig" refreshedDate="42873.827209490744" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="213">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:F214" sheet="Sheet1"/>
   </cacheSource>
@@ -2140,7 +2137,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A4:C12" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="6">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -2392,7 +2389,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="6">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -2488,6 +2485,99 @@
     </ext>
     <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
       <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="6">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="8">
+        <item x="5"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="6"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="8">
+        <item x="4"/>
+        <item x="2"/>
+        <item x="6"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="2"/>
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="10">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="5" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Profit" fld="3" baseField="2" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
     </ext>
   </extLst>
 </pivotTableDefinition>
@@ -2789,26 +2879,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F214"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F214"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.46484375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.1328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.46484375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.46484375" customWidth="1"/>
-    <col min="8" max="8" width="10.33203125" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2828,7 +2918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2848,7 +2938,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2868,7 +2958,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2888,7 +2978,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2908,7 +2998,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2928,7 +3018,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2948,7 +3038,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2968,7 +3058,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2988,7 +3078,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3008,7 +3098,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3028,7 +3118,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3048,7 +3138,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3068,7 +3158,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3088,7 +3178,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3108,7 +3198,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3128,7 +3218,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3148,7 +3238,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3168,7 +3258,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3188,7 +3278,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3208,7 +3298,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3228,7 +3318,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3248,7 +3338,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3268,7 +3358,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3288,7 +3378,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3308,7 +3398,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3328,7 +3418,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3348,7 +3438,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3368,7 +3458,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3388,7 +3478,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3408,7 +3498,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3428,7 +3518,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -3448,7 +3538,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -3468,7 +3558,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -3488,7 +3578,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -3508,7 +3598,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -3528,7 +3618,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -3548,7 +3638,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -3568,7 +3658,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -3588,7 +3678,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -3608,7 +3698,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -3628,7 +3718,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -3648,7 +3738,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -3668,7 +3758,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -3688,7 +3778,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -3708,7 +3798,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -3728,7 +3818,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -3748,7 +3838,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -3768,7 +3858,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -3788,7 +3878,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -3808,7 +3898,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -3828,7 +3918,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -3848,7 +3938,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -3868,7 +3958,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -3888,7 +3978,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -3908,7 +3998,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -3928,7 +4018,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -3948,7 +4038,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -3968,7 +4058,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -3988,7 +4078,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -4008,7 +4098,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -4028,7 +4118,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -4048,7 +4138,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -4068,7 +4158,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -4088,7 +4178,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -4108,7 +4198,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -4128,7 +4218,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -4148,7 +4238,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -4168,7 +4258,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -4188,7 +4278,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -4208,7 +4298,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -4228,7 +4318,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -4248,7 +4338,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -4268,7 +4358,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -4288,7 +4378,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -4308,7 +4398,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -4328,7 +4418,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -4348,7 +4438,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -4368,7 +4458,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -4388,7 +4478,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -4408,7 +4498,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -4428,7 +4518,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -4448,7 +4538,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -4468,7 +4558,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -4488,7 +4578,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -4508,7 +4598,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -4528,7 +4618,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -4548,7 +4638,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -4568,7 +4658,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -4588,7 +4678,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -4608,7 +4698,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -4628,7 +4718,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
@@ -4648,7 +4738,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -4668,7 +4758,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -4688,7 +4778,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -4708,7 +4798,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -4728,7 +4818,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
@@ -4748,7 +4838,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
@@ -4768,7 +4858,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
@@ -4788,7 +4878,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
@@ -4808,7 +4898,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
@@ -4828,7 +4918,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
@@ -4848,7 +4938,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
@@ -4868,7 +4958,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
@@ -4888,7 +4978,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
@@ -4908,7 +4998,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
@@ -4928,7 +5018,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
@@ -4948,7 +5038,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
@@ -4968,7 +5058,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
@@ -4988,7 +5078,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
@@ -5008,7 +5098,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
@@ -5028,7 +5118,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
@@ -5048,7 +5138,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
@@ -5068,7 +5158,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
@@ -5088,7 +5178,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
@@ -5108,7 +5198,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
@@ -5128,7 +5218,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
@@ -5148,7 +5238,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
@@ -5168,7 +5258,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
@@ -5188,7 +5278,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
@@ -5208,7 +5298,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
@@ -5228,7 +5318,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
@@ -5248,7 +5338,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
@@ -5268,7 +5358,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>123</v>
       </c>
@@ -5288,7 +5378,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>124</v>
       </c>
@@ -5308,7 +5398,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>125</v>
       </c>
@@ -5328,7 +5418,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>126</v>
       </c>
@@ -5348,7 +5438,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>127</v>
       </c>
@@ -5368,7 +5458,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>128</v>
       </c>
@@ -5388,7 +5478,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>129</v>
       </c>
@@ -5408,7 +5498,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>130</v>
       </c>
@@ -5428,7 +5518,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>131</v>
       </c>
@@ -5448,7 +5538,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>132</v>
       </c>
@@ -5468,7 +5558,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>133</v>
       </c>
@@ -5488,7 +5578,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>134</v>
       </c>
@@ -5508,7 +5598,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>135</v>
       </c>
@@ -5528,7 +5618,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>136</v>
       </c>
@@ -5548,7 +5638,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>137</v>
       </c>
@@ -5568,7 +5658,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>138</v>
       </c>
@@ -5588,7 +5678,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>139</v>
       </c>
@@ -5608,7 +5698,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>140</v>
       </c>
@@ -5628,7 +5718,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>141</v>
       </c>
@@ -5648,7 +5738,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>142</v>
       </c>
@@ -5668,7 +5758,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>143</v>
       </c>
@@ -5688,7 +5778,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>144</v>
       </c>
@@ -5708,7 +5798,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>145</v>
       </c>
@@ -5728,7 +5818,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>146</v>
       </c>
@@ -5748,7 +5838,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>147</v>
       </c>
@@ -5768,7 +5858,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>148</v>
       </c>
@@ -5788,7 +5878,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>149</v>
       </c>
@@ -5808,7 +5898,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>150</v>
       </c>
@@ -5828,7 +5918,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>151</v>
       </c>
@@ -5848,7 +5938,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>152</v>
       </c>
@@ -5868,7 +5958,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>153</v>
       </c>
@@ -5888,7 +5978,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>154</v>
       </c>
@@ -5908,7 +5998,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>155</v>
       </c>
@@ -5928,7 +6018,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>156</v>
       </c>
@@ -5948,7 +6038,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>157</v>
       </c>
@@ -5968,7 +6058,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>158</v>
       </c>
@@ -5988,7 +6078,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>159</v>
       </c>
@@ -6008,7 +6098,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>160</v>
       </c>
@@ -6028,7 +6118,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>161</v>
       </c>
@@ -6048,7 +6138,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>162</v>
       </c>
@@ -6068,7 +6158,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>163</v>
       </c>
@@ -6088,7 +6178,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>164</v>
       </c>
@@ -6108,7 +6198,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>165</v>
       </c>
@@ -6128,7 +6218,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>166</v>
       </c>
@@ -6148,7 +6238,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>167</v>
       </c>
@@ -6168,7 +6258,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>168</v>
       </c>
@@ -6188,7 +6278,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>169</v>
       </c>
@@ -6208,7 +6298,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>170</v>
       </c>
@@ -6228,7 +6318,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>171</v>
       </c>
@@ -6248,7 +6338,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>172</v>
       </c>
@@ -6268,7 +6358,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>173</v>
       </c>
@@ -6288,7 +6378,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>174</v>
       </c>
@@ -6308,7 +6398,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>175</v>
       </c>
@@ -6328,7 +6418,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>176</v>
       </c>
@@ -6348,7 +6438,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>177</v>
       </c>
@@ -6368,7 +6458,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>178</v>
       </c>
@@ -6388,7 +6478,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>179</v>
       </c>
@@ -6408,7 +6498,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>180</v>
       </c>
@@ -6428,7 +6518,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>181</v>
       </c>
@@ -6448,7 +6538,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>182</v>
       </c>
@@ -6468,7 +6558,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>183</v>
       </c>
@@ -6488,7 +6578,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>184</v>
       </c>
@@ -6508,7 +6598,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>185</v>
       </c>
@@ -6528,7 +6618,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>186</v>
       </c>
@@ -6548,7 +6638,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>187</v>
       </c>
@@ -6568,7 +6658,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>188</v>
       </c>
@@ -6588,7 +6678,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>189</v>
       </c>
@@ -6608,7 +6698,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>190</v>
       </c>
@@ -6628,7 +6718,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>191</v>
       </c>
@@ -6648,7 +6738,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>192</v>
       </c>
@@ -6668,7 +6758,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>193</v>
       </c>
@@ -6688,7 +6778,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>194</v>
       </c>
@@ -6708,7 +6798,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>195</v>
       </c>
@@ -6728,7 +6818,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>196</v>
       </c>
@@ -6748,7 +6838,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>197</v>
       </c>
@@ -6768,7 +6858,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>198</v>
       </c>
@@ -6788,7 +6878,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>199</v>
       </c>
@@ -6808,7 +6898,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>200</v>
       </c>
@@ -6828,7 +6918,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>201</v>
       </c>
@@ -6848,7 +6938,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>202</v>
       </c>
@@ -6868,7 +6958,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>203</v>
       </c>
@@ -6888,7 +6978,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>204</v>
       </c>
@@ -6908,7 +6998,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>205</v>
       </c>
@@ -6928,7 +7018,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>206</v>
       </c>
@@ -6948,7 +7038,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>207</v>
       </c>
@@ -6968,7 +7058,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>208</v>
       </c>
@@ -6988,7 +7078,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>209</v>
       </c>
@@ -7008,7 +7098,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>210</v>
       </c>
@@ -7028,7 +7118,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>211</v>
       </c>
@@ -7048,7 +7138,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>212</v>
       </c>
@@ -7068,7 +7158,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>213</v>
       </c>
@@ -7095,21 +7185,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.1328125" customWidth="1"/>
-    <col min="2" max="2" width="12.46484375" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -7117,7 +7207,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>21</v>
       </c>
@@ -7128,7 +7218,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>13</v>
       </c>
@@ -7139,7 +7229,7 @@
         <v>8892</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>12</v>
       </c>
@@ -7150,7 +7240,7 @@
         <v>9543</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>18</v>
       </c>
@@ -7161,7 +7251,7 @@
         <v>8416</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>17</v>
       </c>
@@ -7172,7 +7262,7 @@
         <v>9630</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>16</v>
       </c>
@@ -7183,7 +7273,7 @@
         <v>9127</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>15</v>
       </c>
@@ -7194,7 +7284,7 @@
         <v>9333</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>14</v>
       </c>
@@ -7205,7 +7295,7 @@
         <v>9990</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>22</v>
       </c>
@@ -7222,20 +7312,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="12.46484375" customWidth="1"/>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -7243,7 +7333,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>21</v>
       </c>
@@ -7251,13 +7341,13 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="4"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>13</v>
       </c>
@@ -7265,7 +7355,7 @@
         <v>191257</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>12</v>
       </c>
@@ -7273,7 +7363,7 @@
         <v>340295</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>15</v>
       </c>
@@ -7281,7 +7371,7 @@
         <v>57079</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>14</v>
       </c>
@@ -7289,7 +7379,7 @@
         <v>104438</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>27</v>
       </c>
@@ -7297,13 +7387,13 @@
         <v>693069</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="4"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>18</v>
       </c>
@@ -7311,7 +7401,7 @@
         <v>57281</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>17</v>
       </c>
@@ -7319,7 +7409,7 @@
         <v>142439</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>16</v>
       </c>
@@ -7327,7 +7417,7 @@
         <v>136945</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>28</v>
       </c>
@@ -7335,11 +7425,128 @@
         <v>336665</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="4">
+        <v>1029734</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pivotSelection pane="bottomRight" click="1" r:id="rId1">
+        <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisPage" fieldPosition="0"/>
+      </pivotSelection>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="4">
+        <v>693069</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="4">
+        <v>191257</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="4">
+        <v>340295</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="4">
+        <v>57079</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="4">
+        <v>104438</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="4">
+        <v>336665</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="4">
+        <v>57281</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="4">
+        <v>142439</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="4">
+        <v>136945</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="4">
         <v>1029734</v>
       </c>
     </row>
